--- a/tools/memory_map/AST2700_eFuse_OTP_A1.xlsx
+++ b/tools/memory_map/AST2700_eFuse_OTP_A1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\bmc\socsec\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aspeedtechcom.sharepoint.com/sites/AST2700/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1768D-03ED-47D1-A653-3407D02B4BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{175E21C1-91EE-401F-B17A-212778191DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" xr2:uid="{2C92CD85-051D-4D91-89AD-D4B373BD6A86}"/>
+    <workbookView xWindow="16455" yWindow="4635" windowWidth="11895" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{2C92CD85-051D-4D91-89AD-D4B373BD6A86}"/>
   </bookViews>
   <sheets>
     <sheet name="OTP" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="684">
   <si>
     <t>Pin Strap </t>
   </si>
@@ -247,7 +247,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>GPIOQ1</t>
+    <t>GPIOQ1_MDC2</t>
   </si>
   <si>
     <t>　</t>
@@ -262,13 +262,13 @@
     <t>OTPSTRAP</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP</t>
+    <t>OTPSTRAP_EXT</t>
   </si>
   <si>
     <t>PINSTRAP+OTPSTRAP</t>
   </si>
   <si>
-    <t>PINSTRAP+OTPFLASHSTRAP</t>
+    <t>PINSTRAP+OTPSTRAP_EXT</t>
   </si>
   <si>
     <t>CPU die Pin/OTP/Flash Strap </t>
@@ -295,6 +295,9 @@
     <t>DisCPU</t>
   </si>
   <si>
+    <t>Disable CPU running</t>
+  </si>
+  <si>
     <t>HW disable CA35, ROM will disable bootmcu</t>
   </si>
   <si>
@@ -313,7 +316,7 @@
     <t>BootSPI</t>
   </si>
   <si>
-    <t>Boot from CPU die SPI</t>
+    <t>Enable Boot from CPU die SPI</t>
   </si>
   <si>
     <t>0: Boot from IO die SPI
@@ -332,7 +335,7 @@
     <t>HPLLFreq</t>
   </si>
   <si>
-    <t>HPLL default frequency</t>
+    <t>HPLL default frequency selection</t>
   </si>
   <si>
     <t>00: 2.0GHz, 01: 1.9GHz, 10: 1.8GHz, 11: 1.7GHz</t>
@@ -350,7 +353,7 @@
     <t>CPUHPLL</t>
   </si>
   <si>
-    <t>CPU clock PLL</t>
+    <t>CPU clock PLL selection</t>
   </si>
   <si>
     <t>0: MPLL, 1: HPLL</t>
@@ -371,8 +374,8 @@
     <t>AXI/AHB clock selection</t>
   </si>
   <si>
-    <t>0x: 400MHz, 10: 266MHz, 11: 200MHz when HCLKPLL=0
-0x: 500MHz, 10: 333MHz, 11: 250MHz when HCLKPLL=1</t>
+    <t>0x: 400MHz, 0x: 400MHz, 10: 266MHz, 11: 200MHz when HCLKPLL=0
+0x: 500MHz, 0x: 500MHz, 10: 333MHz, 11: 250MHz when HCLKPLL=1</t>
   </si>
   <si>
     <t>SCU010[6:5]</t>
@@ -387,7 +390,7 @@
     <t>HCLKHPLL</t>
   </si>
   <si>
-    <t>AXI/AHB clock PLL</t>
+    <t>AXI/AHB clock PLL selection</t>
   </si>
   <si>
     <t>SCU010[7]</t>
@@ -402,7 +405,7 @@
     <t>DisDebug</t>
   </si>
   <si>
-    <t>Disable Debug Interfaces for CPU die </t>
+    <t>Disable Debug Interfaces for CPU die</t>
   </si>
   <si>
     <t>all debug interface SCU0C8</t>
@@ -469,7 +472,7 @@
     <t>DisSSP</t>
   </si>
   <si>
-    <t>Disable SSP running. </t>
+    <t>Disable SSP running</t>
   </si>
   <si>
     <t>SCU010[12]</t>
@@ -484,7 +487,7 @@
     <t>DisTSP</t>
   </si>
   <si>
-    <t>Disable TSP running. </t>
+    <t>Disable TSP running</t>
   </si>
   <si>
     <t>SCU010[13]</t>
@@ -523,7 +526,7 @@
     <t>DisARMICE</t>
   </si>
   <si>
-    <t>Disable ARM ICE </t>
+    <t>Disable ARM ICE</t>
   </si>
   <si>
     <t>Disable ARM ICE invasive debug</t>
@@ -535,13 +538,13 @@
     <t>SCU010[16]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[16]</t>
+    <t>OTPSTRAP_EXT[16]</t>
   </si>
   <si>
     <t>SCU010[17]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[17]</t>
+    <t>OTPSTRAP_EXT[17]</t>
   </si>
   <si>
     <t>EN_OpROM</t>
@@ -550,7 +553,7 @@
     <t>VGA_CC</t>
   </si>
   <si>
-    <t>VGA0/1 Class Code </t>
+    <t>VGA0/1 Class Code selection</t>
   </si>
   <si>
     <t>0: Class Code of VGA device, 1: Class code for video device</t>
@@ -559,7 +562,7 @@
     <t>SCU010[18]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[18]</t>
+    <t>OTPSTRAP_EXT[18]</t>
   </si>
   <si>
     <t>ufs_clk_sel</t>
@@ -575,7 +578,7 @@
     <t>SCU010[19]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[19]</t>
+    <t>OTPSTRAP_EXT[19]</t>
   </si>
   <si>
     <t>BooteMMCSpeed</t>
@@ -584,13 +587,13 @@
     <t>eMMC Boot Speed</t>
   </si>
   <si>
-    <t>0: low speed(25Mhz) 1: 50Mhz</t>
+    <t>0: low speed(25Mhz), 1: 50Mhz</t>
   </si>
   <si>
     <t>SCU010[20]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[20]</t>
+    <t>OTPSTRAP_EXT[20]</t>
   </si>
   <si>
     <t>Disable_XHCI</t>
@@ -602,13 +605,13 @@
     <t>SCU010[21]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[21]</t>
+    <t>OTPSTRAP_EXT[21]</t>
   </si>
   <si>
     <t>DisARMICE_TZ</t>
   </si>
   <si>
-    <t>Disable ARM ICE in Trust World </t>
+    <t>Disable ARM ICE in Trust World</t>
   </si>
   <si>
     <t>Disable ICE in Trust World </t>
@@ -617,31 +620,31 @@
     <t>SCU010[22]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[22]</t>
+    <t>OTPSTRAP_EXT[22]</t>
   </si>
   <si>
     <t>SCU010[23]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[23]</t>
+    <t>OTPSTRAP_EXT[23]</t>
   </si>
   <si>
     <t>SCU010[24]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[24]</t>
+    <t>OTPSTRAP_EXT[24]</t>
   </si>
   <si>
     <t>Dis_WDTfull</t>
   </si>
   <si>
-    <t>Disable WDT reset full </t>
+    <t>Disable WDT reset full</t>
   </si>
   <si>
     <t>SCU010[25]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[25]</t>
+    <t>OTPSTRAP_EXT[25]</t>
   </si>
   <si>
     <t>udbg_to_sel</t>
@@ -657,7 +660,7 @@
     <t>SCU010[27:26]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[27:26]</t>
+    <t>OTPSTRAP_EXT[27:26]</t>
   </si>
   <si>
     <t>DAC_Src</t>
@@ -673,7 +676,7 @@
     <t>SCU010[28]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[28]</t>
+    <t>OTPSTRAP_EXT[28]</t>
   </si>
   <si>
     <t>DP_Src</t>
@@ -685,7 +688,7 @@
     <t>SCU010[29]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[29]</t>
+    <t>OTPSTRAP_EXT[29]</t>
   </si>
   <si>
     <t>Dis_RVAS</t>
@@ -697,40 +700,40 @@
     <t>SCU010[30]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[30]</t>
+    <t>OTPSTRAP_EXT[30]</t>
   </si>
   <si>
     <t>SCU010[31]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[31]</t>
+    <t>OTPSTRAP_EXT[31]</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[96]</t>
+    <t>OTPSTRAP_EXT[96]</t>
   </si>
   <si>
     <t>A0 no support</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[97]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[98]</t>
+    <t>OTPSTRAP_EXT[97]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[98]</t>
   </si>
   <si>
     <t>E2M, EN_OpROM</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[99]</t>
+    <t>OTPSTRAP_EXT[99]</t>
   </si>
   <si>
     <t>VRSize</t>
   </si>
   <si>
-    <t>Node0 : Size of VGA RAM </t>
+    <t>Node0 : Size of VGA RAM</t>
   </si>
   <si>
     <t>0: 32MB, 1:64MB (DRAMC100[0])</t>
@@ -742,22 +745,22 @@
     <t>HW will effect by DRAMC</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[100]</t>
+    <t>OTPSTRAP_EXT[100]</t>
   </si>
   <si>
     <t>A0 no support SCU (A1 need add)</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[101]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[102]</t>
+    <t>OTPSTRAP_EXT[101]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[102]</t>
   </si>
   <si>
     <t>En_PCIeVGA0</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable PCIe VGA0 </t>
+    <t>Enable PCIe VGA0</t>
   </si>
   <si>
     <t>SW-RAM write SCU</t>
@@ -766,19 +769,19 @@
     <t>SCUA70[0]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[103]</t>
+    <t>OTPSTRAP_EXT[103]</t>
   </si>
   <si>
     <t>En_PCIeIPMI0</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable PCIe IPMI0 </t>
+    <t>Enable PCIe IPMI0</t>
   </si>
   <si>
     <t>SCUA70[1]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[104]</t>
+    <t>OTPSTRAP_EXT[104]</t>
   </si>
   <si>
     <t>En_PCIeEHCI0</t>
@@ -790,7 +793,7 @@
     <t>SCUA70[2]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[105]</t>
+    <t>OTPSTRAP_EXT[105]</t>
   </si>
   <si>
     <t>En_PCIeXHCI0</t>
@@ -802,7 +805,7 @@
     <t>SCUA70[3]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[106]</t>
+    <t>OTPSTRAP_EXT[106]</t>
   </si>
   <si>
     <t>En_PCIeVGA1</t>
@@ -814,7 +817,7 @@
     <t>SCUAF0[0]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[107]</t>
+    <t>OTPSTRAP_EXT[107]</t>
   </si>
   <si>
     <t>En_PCIeIPMI1</t>
@@ -826,7 +829,7 @@
     <t>SCUAF0[1]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[108]</t>
+    <t>OTPSTRAP_EXT[108]</t>
   </si>
   <si>
     <t>En_PCIeEHCI1</t>
@@ -838,7 +841,7 @@
     <t>SCUAF0[2]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[109]</t>
+    <t>OTPSTRAP_EXT[109]</t>
   </si>
   <si>
     <t>En_PCIeXHCI1</t>
@@ -850,10 +853,10 @@
     <t>SCUAF0[3]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[110]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[127:111]</t>
+    <t>OTPSTRAP_EXT[110]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[127:111]</t>
   </si>
   <si>
     <t>IO die Pin/OTP/Flash Strap </t>
@@ -866,6 +869,9 @@
   </si>
   <si>
     <t>LTPI_Mode</t>
+  </si>
+  <si>
+    <t>0: AST2700. 1: AST1700</t>
   </si>
   <si>
     <t>0: only ROM-effect
@@ -972,7 +978,6 @@
     <t>AST1700:
 0: First AST1700
 1: Second AST1700.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AST1700: HW effect, INTC routing</t>
@@ -990,18 +995,10 @@
       <rPr>
         <strike/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>SCM_Mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">SCM_Mode
 </t>
     </r>
     <r>
@@ -1009,29 +1006,20 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>LTPI0_En</t>
+      <t>LTPI0_En, if AST2700</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <strike/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>1: DC-SCM board. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">1: DC-SCM board. 
 </t>
     </r>
     <r>
@@ -1046,7 +1034,6 @@
 0: Disable LTPI0
 1: Enable LTPI0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1078,13 +1065,40 @@
     <t>SCUIO010[4]</t>
   </si>
   <si>
-    <t>GPIOF6 (A0: GPIO</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GPIOQ3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GPIOF6</t>
+    </r>
   </si>
   <si>
     <t>En_SecBoot</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable Secure Boot </t>
+    <t>Enable Secure Boot</t>
   </si>
   <si>
     <t>SCUIO010[5]</t>
@@ -1096,6 +1110,9 @@
     <t>En_GPIOPT</t>
   </si>
   <si>
+    <t>Enable GPIO pass-through</t>
+  </si>
+  <si>
     <t>SCUIO010[6]</t>
   </si>
   <si>
@@ -1109,6 +1126,9 @@
   </si>
   <si>
     <t>Low Secure</t>
+  </si>
+  <si>
+    <t>Enable Low Secure Mode</t>
   </si>
   <si>
     <t>HW no effect
@@ -1200,7 +1220,7 @@
     <t>DisDebug1</t>
   </si>
   <si>
-    <t>Disable Debug Interfaces for IO die </t>
+    <t>Disable Debug Interfaces for IO die</t>
   </si>
   <si>
     <t>all debug interface SCUIO0C8</t>
@@ -1221,7 +1241,7 @@
     <t>Dis_UartDbg</t>
   </si>
   <si>
-    <t>Disable Uart Debug </t>
+    <t>Disable Uart Debug</t>
   </si>
   <si>
     <r>
@@ -1259,10 +1279,10 @@
     <t>UartDbgSel</t>
   </si>
   <si>
-    <t>Selection of IO for Uart Debug </t>
-  </si>
-  <si>
-    <t>0: IO13 1: IO1 </t>
+    <t>Selection of IO for Uart Debug</t>
+  </si>
+  <si>
+    <t>0: IO12, 1: IO0</t>
   </si>
   <si>
     <t>SCUIO010[19]</t>
@@ -1274,7 +1294,7 @@
     <t>Dis_CptraJTag</t>
   </si>
   <si>
-    <t>Disable JTAG of Caliptra permanently </t>
+    <t>Disable JTAG of Caliptra permanently</t>
   </si>
   <si>
     <t>SCUIO010[20]</t>
@@ -1283,21 +1303,24 @@
     <t>OTPSTRAP[21]</t>
   </si>
   <si>
-    <t>Dis_hash_verify</t>
+    <t>En_ROM_Intr</t>
+  </si>
+  <si>
+    <t>Enable ROM interrupt</t>
+  </si>
+  <si>
+    <t>0: disable, 1: enable</t>
+  </si>
+  <si>
+    <t>SCUIO010[21]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP[22]</t>
   </si>
   <si>
     <t>Disable SoC FMC hash verify</t>
   </si>
   <si>
-    <t>0: enable 1: disable</t>
-  </si>
-  <si>
-    <t>SCUIO010[21]</t>
-  </si>
-  <si>
-    <t>OTPSTRAP[22]</t>
-  </si>
-  <si>
     <t>Dis_ROM</t>
   </si>
   <si>
@@ -1316,7 +1339,7 @@
     <t>Boot from eMMC or UFS selection</t>
   </si>
   <si>
-    <t>0: eMMC 1: UFS</t>
+    <t>0: eMMC, 1: UFS</t>
   </si>
   <si>
     <t>SCUIO010[23]</t>
@@ -1331,10 +1354,7 @@
     <t>SPI_Flash_Wait_Ready</t>
   </si>
   <si>
-    <t>Allow BROM to wait SPI flash ready bit.</t>
-  </si>
-  <si>
-    <t>0: disable 1: enable</t>
+    <t>Allow BROM to wait SPI flash ready bit</t>
   </si>
   <si>
     <t>SCUIO010[24]</t>
@@ -1346,7 +1366,7 @@
     <t>SPI_Flash_4_Byte_Mode</t>
   </si>
   <si>
-    <t>Use 4-byte command to read flash.</t>
+    <t>Use 4-byte command to read flash</t>
   </si>
   <si>
     <t>SCUIO010[25]</t>
@@ -1361,7 +1381,7 @@
     <t>Recovery from Uart or USB selection</t>
   </si>
   <si>
-    <t>0: Uart. 1: USB 2: I2C 3: I3C</t>
+    <t>0: Uart, 1: USB, 2: I2C, 3: I3C</t>
   </si>
   <si>
     <t>SCUIO010[27:26]</t>
@@ -1376,7 +1396,7 @@
     <t>Boot from USB port selection</t>
   </si>
   <si>
-    <t>0/1/2/3: Boot from USB port A/B/C/D</t>
+    <t>0: port A, 1: port B, 2: port C, 3: port D</t>
   </si>
   <si>
     <t>HW write SCU</t>
@@ -1415,13 +1435,10 @@
     <t>boot storage ABR enable</t>
   </si>
   <si>
-    <t>0: disable. 1: enable</t>
-  </si>
-  <si>
     <t>SCUIO030[0]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[32]</t>
+    <t>OTPSTRAP_EXT[32]</t>
   </si>
   <si>
     <t>ROM_Clear_SRAM</t>
@@ -1430,7 +1447,7 @@
     <t>ROM clear SRAM</t>
   </si>
   <si>
-    <t>Clear heap/stack of stuffs in IO/CPU die SRAM
+    <t>Clear loaded image in SRAM when the loaded image is invalid.
 0: disable
 1: enable</t>
   </si>
@@ -1438,28 +1455,22 @@
     <t>SCUIO030[1]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[33]</t>
-  </si>
-  <si>
-    <t>TPM_PCR_INDEX</t>
-  </si>
-  <si>
-    <t>TPM PCR index selection</t>
-  </si>
-  <si>
-    <t>from index 0 to index 23.</t>
+    <t>OTPSTRAP_EXT[33]</t>
   </si>
   <si>
     <t>SCUIO030[6:2]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[38:34]</t>
+    <t>OTPSTRAP_EXT[38:34]</t>
+  </si>
+  <si>
+    <t>remove from TPM PCR index</t>
   </si>
   <si>
     <t>SCUIO030[8:7]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[40:39]</t>
+    <t>OTPSTRAP_EXT[40:39]</t>
   </si>
   <si>
     <t>MediaRec</t>
@@ -1468,7 +1479,7 @@
     <t>SCUIO030[10:9]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[42:41]</t>
+    <t>OTPSTRAP_EXT[42:41]</t>
   </si>
   <si>
     <t>En_Cptra_debug</t>
@@ -1484,7 +1495,7 @@
     <t>SCUIO030[11]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[43]</t>
+    <t>OTPSTRAP_EXT[43]</t>
   </si>
   <si>
     <t>Dis_Rec</t>
@@ -1503,28 +1514,28 @@
     <t>SCUIO030[12]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[44]</t>
+    <t>OTPSTRAP_EXT[44]</t>
   </si>
   <si>
     <t>FWSPISize</t>
   </si>
   <si>
-    <t>Size of FW SPI Flash </t>
-  </si>
-  <si>
-    <t>7: 512MB. 6: 256MB. 5: 128MB. 4: 64MB. 3: 32MB. 2: 16MB. 1: 8MB. 0: disable</t>
+    <t>Size of FW SPI Flash</t>
+  </si>
+  <si>
+    <t>0: disable, 1: 8MB, 2: 16MB, 3: 32MB, 4: 64MB, 5: 128MB, 6: 256MB, 7: 512MB</t>
   </si>
   <si>
     <t>SCUIO030[15:13]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[47:45]</t>
+    <t>OTPSTRAP_EXT[47:45]</t>
   </si>
   <si>
     <t>En_FWSPIAux</t>
   </si>
   <si>
-    <t>Enable FWSPI auxiliary pins </t>
+    <t>Enable FWSPI auxiliary pins</t>
   </si>
   <si>
     <t>FWSPIDQ2/FWSPIDQ3/FWSPIABR/FWSPIWP# </t>
@@ -1533,7 +1544,7 @@
     <t>SCUIO030[16]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[48]</t>
+    <t>OTPSTRAP_EXT[48]</t>
   </si>
   <si>
     <t>RAM code need check GPIO value</t>
@@ -1542,13 +1553,13 @@
     <t>FWSPI_CRTM</t>
   </si>
   <si>
-    <t>Size of FWSPI CRTM </t>
+    <t>Size of FWSPI CRTM</t>
   </si>
   <si>
     <t>SCUIO030[18:17]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[50:49]</t>
+    <t>OTPSTRAP_EXT[50:49]</t>
   </si>
   <si>
     <t>Reserved</t>
@@ -1558,7 +1569,7 @@
     <t>SCUIO030[21:19]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[53:51]</t>
+    <t>OTPSTRAP_EXT[53:51]</t>
   </si>
   <si>
     <t>LTPI_Max</t>
@@ -1568,7 +1579,7 @@
     <t>SCUIO030[22]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[54]</t>
+    <t>OTPSTRAP_EXT[54]</t>
   </si>
   <si>
     <t>LTPI_IO_Type</t>
@@ -1590,54 +1601,55 @@
     <t>SCUIO030[24:23]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[56:55]</t>
-  </si>
-  <si>
-    <t>SPI_TPM_HASH_Algo</t>
-  </si>
-  <si>
-    <t>SPI TPM HASH Algorithm</t>
-  </si>
-  <si>
-    <t>2b'00: SHA256 (by default)
-2b'01: SHA384
-2b'10: SHA512</t>
-  </si>
-  <si>
-    <t>SCUIO030[26:25]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[58:57]</t>
-  </si>
-  <si>
-    <t>SPI_TPM_PCR_EXT_EN</t>
-  </si>
-  <si>
-    <t>Enable TPM PCR extension</t>
-  </si>
-  <si>
-    <t>0: disable. 1: enable.</t>
+    <t>OTPSTRAP_EXT[56:55]</t>
+  </si>
+  <si>
+    <t>Check_Flash_Access</t>
+  </si>
+  <si>
+    <t>check flash is ready for accessing</t>
+  </si>
+  <si>
+    <t>SCUIO030[25]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[57]</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>SCUIO030[26]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[58]</t>
+  </si>
+  <si>
+    <t>ABR_RECOVERY_DIS</t>
+  </si>
+  <si>
+    <t>disable recovery mode after ABR</t>
+  </si>
+  <si>
+    <t>0: enable, 1: disable</t>
   </si>
   <si>
     <t>SCUIO030[27]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[59]</t>
+    <t>OTPSTRAP_EXT[59]</t>
   </si>
   <si>
     <t>FMC_ABR_CS_SWAP_DIS</t>
   </si>
   <si>
-    <t>Disable CS swap after dual flash ABR is triggerred.</t>
-  </si>
-  <si>
-    <t>0: enable. 1: disable.</t>
+    <t>Disable CS swap after dual flash ABR is triggerred</t>
   </si>
   <si>
     <t>SCUIO030[28]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[60]</t>
+    <t>OTPSTRAP_EXT[60]</t>
   </si>
   <si>
     <t>FMC_ABR_MODE</t>
@@ -1646,37 +1658,37 @@
     <t>FMC abr mode</t>
   </si>
   <si>
-    <t>0: dual flash ABR, 1: single flash ABR.</t>
+    <t>0: dual flash ABR, 1: single flash ABR</t>
   </si>
   <si>
     <t>SCUIO030[29]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[61]</t>
+    <t>OTPSTRAP_EXT[61]</t>
   </si>
   <si>
     <t>SCUIO030[31:30]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[63:62]</t>
+    <t>OTPSTRAP_EXT[63:62]</t>
   </si>
   <si>
     <t>Node0_HostSPISize0</t>
   </si>
   <si>
-    <t>Size of Host SPI Flash 0 </t>
+    <t>Size of Host SPI Flash 0</t>
   </si>
   <si>
     <t>SCUIOA00[2:0]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[66:64]</t>
+    <t>OTPSTRAP_EXT[66:64]</t>
   </si>
   <si>
     <t>Node0_En_HSPIAux</t>
   </si>
   <si>
-    <t>Enable Host SPI auxiliary pins </t>
+    <t>Enable Host SPI auxiliary pins</t>
   </si>
   <si>
     <t>SPIDQ2/SPIDQ3/SPIABR/SPIWP# </t>
@@ -1685,76 +1697,76 @@
     <t>SCUIOA00[3]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[67]</t>
+    <t>OTPSTRAP_EXT[67]</t>
   </si>
   <si>
     <t>Node0_HSPI0_CRTM</t>
   </si>
   <si>
-    <t>Size of Host SPI0 CRTM </t>
+    <t>Size of Host SPI0 CRTM</t>
   </si>
   <si>
     <t>SCUIOA00[5:4]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[69:68]</t>
+    <t>OTPSTRAP_EXT[69:68]</t>
   </si>
   <si>
     <t>Node0_SIODecSel</t>
   </si>
   <si>
-    <t>Selection of SIO decode address </t>
-  </si>
-  <si>
-    <t>0: 0x2E. 1: 0x4E.</t>
+    <t>Selection of SIO decode address</t>
+  </si>
+  <si>
+    <t>0: 0x2E, 1: 0x4E</t>
   </si>
   <si>
     <t>SCUIOA00[6]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[70]</t>
+    <t>OTPSTRAP_EXT[70]</t>
   </si>
   <si>
     <t>Node0_Dis_SIODec</t>
   </si>
   <si>
-    <t>Disable SIO Decoding </t>
+    <t>Disable SIO Decoding</t>
   </si>
   <si>
     <t>SCUIOA00[7]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[71]</t>
+    <t>OTPSTRAP_EXT[71]</t>
   </si>
   <si>
     <t>Node0_En_ACPI</t>
   </si>
   <si>
-    <t>Enable ACPI </t>
+    <t>Enable ACPI</t>
   </si>
   <si>
     <t>SCUIOA00[8]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[72]</t>
+    <t>OTPSTRAP_EXT[72]</t>
   </si>
   <si>
     <t>Node0_En_LPC</t>
   </si>
   <si>
-    <t>Enable LPC </t>
+    <t>Enable LPC</t>
   </si>
   <si>
     <t>SCUIOA00[9]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[73]</t>
+    <t>OTPSTRAP_EXT[73]</t>
   </si>
   <si>
     <t>Node0_En_eDAF</t>
   </si>
   <si>
-    <t>Enable eDAF </t>
+    <t>Enable eDAF</t>
   </si>
   <si>
     <t>Only takes effect for eSPI mode.</t>
@@ -1763,122 +1775,122 @@
     <t>SCUIOA00[10]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[74]</t>
+    <t>OTPSTRAP_EXT[74]</t>
   </si>
   <si>
     <t>Node0_En_eRTC</t>
   </si>
   <si>
-    <t>Enable eSPI RTC </t>
+    <t>Enable eSPI RTC</t>
   </si>
   <si>
     <t>SCUIOA00[11]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[75]</t>
+    <t>OTPSTRAP_EXT[75]</t>
   </si>
   <si>
     <t>SCUIOA00[15:12]</t>
   </si>
   <si>
-    <t>OTPFLASHSTRAP[79:76]</t>
+    <t>OTPSTRAP_EXT[79:76]</t>
   </si>
   <si>
     <t>Node1_HostSPISize1</t>
   </si>
   <si>
-    <t>Size of Host SPI Flash 1 </t>
+    <t>Size of Host SPI Flash 1</t>
   </si>
   <si>
     <t>HW no effect</t>
   </si>
   <si>
-    <t>SCUIOA00[18:16]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[82:80]</t>
+    <t>SCUIOA20[2:0]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[82:80]</t>
   </si>
   <si>
     <t>Node1_En_HSPIAux</t>
   </si>
   <si>
-    <t>SCUIOA00[19]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[83]</t>
+    <t>SCUIOA20[3]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[83]</t>
   </si>
   <si>
     <t>Node1_HSPI1_CRTM</t>
   </si>
   <si>
-    <t>Size of Host SPI1 CRTM </t>
-  </si>
-  <si>
-    <t>SCUIOA00[21:20]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[85:84]</t>
+    <t>Size of Host SPI1 CRTM</t>
+  </si>
+  <si>
+    <t>SCUIOA20[5:4]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[85:84]</t>
   </si>
   <si>
     <t>Node1_SIODecSel</t>
   </si>
   <si>
-    <t>SCUIOA00[22]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[86]</t>
+    <t>SCUIOA20[6]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[86]</t>
   </si>
   <si>
     <t>Node1_Dis_SIODec</t>
   </si>
   <si>
-    <t>SCUIOA00[23]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[87]</t>
+    <t>SCUIOA20[7]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[87]</t>
   </si>
   <si>
     <t>Node1_En_ACPI</t>
   </si>
   <si>
-    <t>SCUIOA00[24]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[88]</t>
+    <t>SCUIOA20[8]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[88]</t>
   </si>
   <si>
     <t>Node1_En_LPC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SCUIOA00[25]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[89]</t>
+    <t>SCUIOA20[9]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[89]</t>
   </si>
   <si>
     <t>Node1_En_eDAF</t>
   </si>
   <si>
-    <t>SCUIOA00[26]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[90]</t>
+    <t>SCUIOA20[10]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[90]</t>
   </si>
   <si>
     <t>Node1_En_eRTC</t>
   </si>
   <si>
-    <t>SCUIOA00[27]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[91]</t>
-  </si>
-  <si>
-    <t>SCUIOA00[31:28]</t>
-  </si>
-  <si>
-    <t>OTPFLASHSTRAP[95:92]</t>
+    <t>SCUIOA20[11]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[91]</t>
+  </si>
+  <si>
+    <t>SCUIOA20[15:12]</t>
+  </si>
+  <si>
+    <t>OTPSTRAP_EXT[95:92]</t>
   </si>
   <si>
     <t>eFuse</t>
@@ -1964,9 +1976,6 @@
     <t>DisIOMCU</t>
   </si>
   <si>
-    <t>Disable IO MCU</t>
-  </si>
-  <si>
     <t>[70]</t>
   </si>
   <si>
@@ -2018,10 +2027,10 @@
     <t>[76]</t>
   </si>
   <si>
-    <t>Dis_NIST_TRNG</t>
-  </si>
-  <si>
-    <t>Disable NIST TRNG for PUF</t>
+    <t>Dis_Prog_PUF</t>
+  </si>
+  <si>
+    <t>Disable Program PUF</t>
   </si>
   <si>
     <t>0b: Enable, 1b: Disable</t>
@@ -2294,13 +2303,19 @@
   </si>
   <si>
     <t>reserved </t>
+  </si>
+  <si>
+    <t>Disable SSP running. </t>
+  </si>
+  <si>
+    <t>Disable TSP running. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2478,13 +2493,22 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2607,7 +2631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,7 +3331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3713,6 +3743,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3740,12 +3773,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3914,26 +3941,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3965,9 +3998,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4005,7 +4038,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4111,7 +4144,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4253,7 +4286,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4264,33 +4297,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O161"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A107" sqref="A107"/>
+    <sheetView topLeftCell="A82" zoomScale="189" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C115" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.875" style="18" customWidth="1"/>
     <col min="2" max="2" width="25.875" style="18" customWidth="1"/>
     <col min="3" max="3" width="33.125" style="23" customWidth="1"/>
     <col min="4" max="4" width="60.625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24" style="18" customWidth="1"/>
     <col min="7" max="7" width="23.625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.875" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4303,7 +4336,7 @@
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
@@ -4326,7 +4359,7 @@
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -4350,7 +4383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
@@ -4374,7 +4407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
@@ -4400,7 +4433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" hidden="1">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -4448,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" hidden="1">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
@@ -4474,7 +4507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
@@ -4500,7 +4533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="21" t="s">
         <v>7</v>
       </c>
@@ -4522,7 +4555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
@@ -4542,11 +4575,11 @@
       <c r="G12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="173" t="s">
+      <c r="H12" s="172" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="51" t="s">
         <v>7</v>
       </c>
@@ -4570,7 +4603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="50">
         <v>1</v>
       </c>
@@ -4588,30 +4621,30 @@
       <c r="G14" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="173" t="s">
+      <c r="H14" s="172" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="31.5" hidden="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="169" t="s">
+      <c r="C15" s="168" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="56"/>
-      <c r="G15" s="161" t="s">
+      <c r="G15" s="160" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="47.25" hidden="1">
       <c r="A16" s="43">
         <v>1</v>
       </c>
@@ -4637,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
         <v>59</v>
@@ -4651,15 +4684,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="158" t="s">
+    <row r="18" spans="1:10" hidden="1">
+      <c r="A18" s="157"/>
+      <c r="B18" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="47" t="s">
         <v>62</v>
       </c>
@@ -4667,17 +4700,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="180">
-        <v>1</v>
-      </c>
-      <c r="B19" s="181" t="s">
+    <row r="19" spans="1:10" ht="31.5">
+      <c r="A19" s="179">
+        <v>1</v>
+      </c>
+      <c r="B19" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="182" t="s">
+      <c r="D19" s="181" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="35"/>
@@ -4688,14 +4721,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="176"/>
+      <c r="B21" s="176"/>
       <c r="C21" s="60" t="s">
         <v>68</v>
       </c>
@@ -4710,18 +4743,18 @@
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="159" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="159"/>
-      <c r="C22" s="178" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="179" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="179" t="s">
+      <c r="B22" s="158"/>
+      <c r="C22" s="177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="178" t="s">
         <v>68</v>
       </c>
       <c r="F22" s="60"/>
@@ -4729,9 +4762,9 @@
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="60"/>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="156" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="84" t="s">
@@ -4740,17 +4773,17 @@
       <c r="D23" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="176" t="s">
+      <c r="E23" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="175" t="s">
+      <c r="F23" s="174" t="s">
         <v>74</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="86" t="s">
         <v>75</v>
       </c>
@@ -4780,7 +4813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="61" t="s">
         <v>1</v>
       </c>
@@ -4812,7 +4845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="64">
         <v>1</v>
       </c>
@@ -4820,420 +4853,418 @@
         <v>82</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="95" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" s="97" t="s">
         <v>68</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30.75">
       <c r="A27" s="65">
         <v>1</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="208" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="65">
         <v>2</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="103" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H28" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I28" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="208" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="65">
         <v>1</v>
       </c>
       <c r="B29" s="92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H29" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I29" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="208" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30.75">
       <c r="A30" s="65">
         <v>2</v>
       </c>
       <c r="B30" s="92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H30" s="101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="208" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="65">
         <v>1</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" s="101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I31" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="208" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="65">
         <v>1</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="193" t="s">
+      <c r="C32" s="208" t="s">
         <v>119</v>
+      </c>
+      <c r="D32" s="192" t="s">
+        <v>120</v>
       </c>
       <c r="E32" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" s="106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H32" s="101" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I32" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="208" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="65">
         <v>1</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="192" t="s">
         <v>124</v>
       </c>
+      <c r="C33" s="191" t="s">
+        <v>125</v>
+      </c>
       <c r="D33" s="98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E33" s="92" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" s="106" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H33" s="101" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I33" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="208" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="65">
         <v>1</v>
       </c>
-      <c r="B34" s="186" t="s">
-        <v>129</v>
+      <c r="B34" s="185" t="s">
+        <v>130</v>
       </c>
       <c r="C34" s="121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D34" s="121" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E34" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="149" t="s">
-        <v>84</v>
+      <c r="F34" s="148" t="s">
+        <v>85</v>
       </c>
       <c r="G34" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="65">
+        <v>1</v>
+      </c>
+      <c r="B35" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="208" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
-        <v>1</v>
-      </c>
-      <c r="B35" s="186" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="194" t="s">
+      <c r="E35" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="149" t="s">
-        <v>84</v>
+      <c r="F35" s="148" t="s">
+        <v>85</v>
       </c>
       <c r="G35" s="106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H35" s="101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I35" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J35" s="208" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="65">
         <v>1</v>
       </c>
-      <c r="B36" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="189" t="s">
+      <c r="B36" s="187" t="s">
         <v>140</v>
+      </c>
+      <c r="C36" s="188" t="s">
+        <v>141</v>
       </c>
       <c r="D36" s="121"/>
       <c r="E36" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="149" t="s">
-        <v>84</v>
+      <c r="F36" s="148" t="s">
+        <v>85</v>
       </c>
       <c r="G36" s="106" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H36" s="101" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I36" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="208" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="65">
         <v>1</v>
       </c>
-      <c r="B37" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="138" t="s">
+      <c r="B37" s="189" t="s">
         <v>145</v>
       </c>
+      <c r="C37" s="139" t="s">
+        <v>146</v>
+      </c>
       <c r="D37" s="121"/>
-      <c r="E37" s="194" t="s">
+      <c r="E37" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="149" t="s">
-        <v>84</v>
+      <c r="F37" s="148" t="s">
+        <v>85</v>
       </c>
       <c r="G37" s="100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H37" s="101" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I37" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="208" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="65">
         <v>1</v>
       </c>
-      <c r="B38" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="138" t="s">
+      <c r="B38" s="138" t="s">
         <v>150</v>
       </c>
+      <c r="C38" s="139" t="s">
+        <v>151</v>
+      </c>
       <c r="D38" s="103" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="149" t="s">
-        <v>84</v>
+      <c r="F38" s="148" t="s">
+        <v>85</v>
       </c>
       <c r="G38" s="106" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H38" s="101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I38" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="J38" s="208" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="65">
         <v>1</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C39" s="67"/>
       <c r="D39" s="67" t="s">
         <v>68</v>
       </c>
@@ -5244,228 +5275,224 @@
         <v>68</v>
       </c>
       <c r="G39" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="68">
+        <v>1</v>
+      </c>
+      <c r="B40" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="68">
+        <v>1</v>
+      </c>
+      <c r="B41" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="H39" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="I39" s="106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="68">
-        <v>1</v>
-      </c>
-      <c r="B40" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="100" t="s">
+      <c r="C41" s="67"/>
+      <c r="D41" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="68">
+        <v>1</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="H40" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="I40" s="106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="68">
-        <v>1</v>
-      </c>
-      <c r="B41" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="I41" s="107" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="68">
-        <v>1</v>
-      </c>
-      <c r="B42" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="109" t="s">
-        <v>160</v>
-      </c>
       <c r="F42" s="113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H42" s="101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I42" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="68">
         <v>1</v>
       </c>
-      <c r="B43" s="137" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="138" t="s">
+      <c r="B43" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="138" t="s">
+      <c r="C43" s="139" t="s">
         <v>173</v>
       </c>
+      <c r="D43" s="139" t="s">
+        <v>174</v>
+      </c>
       <c r="E43" s="109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F43" s="113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H43" s="101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I43" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15">
       <c r="A44" s="68">
         <v>1</v>
       </c>
       <c r="B44" s="92" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C44" s="111" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D44" s="112" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" s="114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F44" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" s="100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H44" s="101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I44" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="68">
         <v>1</v>
       </c>
       <c r="B45" s="92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C45" s="115" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D45" s="112" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F45" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" s="100" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H45" s="101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I45" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="68">
         <v>1</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D46" s="112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E46" s="114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F46" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G46" s="100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H46" s="101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I46" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="68">
         <v>1</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="116" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C47" s="116"/>
       <c r="D47" s="117" t="s">
         <v>68</v>
       </c>
@@ -5476,25 +5503,23 @@
         <v>68</v>
       </c>
       <c r="G47" s="101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H47" s="118" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I47" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="68">
         <v>1</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="69" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C48" s="69"/>
       <c r="D48" s="70" t="s">
         <v>68</v>
       </c>
@@ -5505,170 +5530,168 @@
         <v>68</v>
       </c>
       <c r="G48" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="H48" s="197" t="s">
         <v>193</v>
       </c>
+      <c r="H48" s="196" t="s">
+        <v>194</v>
+      </c>
       <c r="I48" s="100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="68">
         <v>1</v>
       </c>
       <c r="B49" s="92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C49" s="111" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D49" s="112" t="s">
         <v>68</v>
       </c>
       <c r="E49" s="114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F49" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="H49" s="149" t="s">
         <v>197</v>
       </c>
+      <c r="H49" s="148" t="s">
+        <v>198</v>
+      </c>
       <c r="I49" s="100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="68">
         <v>2</v>
       </c>
-      <c r="B50" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="137" t="s">
+      <c r="B50" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="D50" s="140" t="s">
+      <c r="C50" s="138" t="s">
         <v>200</v>
       </c>
+      <c r="D50" s="141" t="s">
+        <v>201</v>
+      </c>
       <c r="E50" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="149" t="s">
-        <v>84</v>
+        <v>161</v>
+      </c>
+      <c r="F50" s="148" t="s">
+        <v>85</v>
       </c>
       <c r="G50" s="100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H50" s="101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I50" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="68">
         <v>1</v>
       </c>
       <c r="B51" s="119" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" s="111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E51" s="114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G51" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" s="106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="68">
+        <v>1</v>
+      </c>
+      <c r="B52" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="H51" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51" s="106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="68">
-        <v>1</v>
-      </c>
-      <c r="B52" s="119" t="s">
-        <v>208</v>
-      </c>
-      <c r="C52" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="112" t="s">
-        <v>205</v>
-      </c>
       <c r="E52" s="114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F52" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" s="101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H52" s="118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I52" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="68">
         <v>1</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D53" s="73" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F53" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G53" s="101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H53" s="118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I53" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="68">
         <v>1</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="69" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C54" s="69"/>
       <c r="D54" s="70" t="s">
         <v>68</v>
       </c>
@@ -5679,23 +5702,21 @@
         <v>68</v>
       </c>
       <c r="G54" s="101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H54" s="120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I54" s="100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="108">
         <v>32</v>
       </c>
       <c r="B55" s="108"/>
-      <c r="C55" s="108" t="s">
-        <v>68</v>
-      </c>
+      <c r="C55" s="108"/>
       <c r="D55" s="108"/>
       <c r="E55" s="108"/>
       <c r="F55" s="108"/>
@@ -5705,16 +5726,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="77">
         <v>1</v>
       </c>
       <c r="B56" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C56" s="78"/>
       <c r="D56" s="78" t="s">
         <v>68</v>
       </c>
@@ -5724,55 +5743,51 @@
       <c r="F56" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="191" t="s">
-        <v>218</v>
+      <c r="G56" s="190" t="s">
+        <v>219</v>
       </c>
       <c r="H56" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="74">
+        <v>1</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="I56" s="106" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
-        <v>1</v>
-      </c>
-      <c r="B57" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="136" t="s">
-        <v>218</v>
-      </c>
       <c r="H57" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="I57" s="106" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="74">
         <v>1</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="69" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C58" s="69"/>
       <c r="D58" s="70" t="s">
         <v>68</v>
       </c>
@@ -5783,25 +5798,23 @@
         <v>68</v>
       </c>
       <c r="G58" s="136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H58" s="101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I58" s="106" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="74">
         <v>1</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="69" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C59" s="69"/>
       <c r="D59" s="70" t="s">
         <v>68</v>
       </c>
@@ -5812,54 +5825,52 @@
         <v>68</v>
       </c>
       <c r="G59" s="136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H59" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="I59" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="I59" s="110" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="74">
         <v>1</v>
       </c>
       <c r="B60" s="103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C60" s="103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E60" s="122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F60" s="123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G60" s="136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H60" s="101" t="s">
-        <v>230</v>
-      </c>
-      <c r="I60" s="149" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="148" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="74">
         <v>1</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="69" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C61" s="69"/>
       <c r="D61" s="70" t="s">
         <v>68</v>
       </c>
@@ -5870,25 +5881,23 @@
         <v>68</v>
       </c>
       <c r="G61" s="136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H61" s="101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I61" s="106" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="74">
         <v>1</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="69" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C62" s="69"/>
       <c r="D62" s="70" t="s">
         <v>68</v>
       </c>
@@ -5899,257 +5908,255 @@
         <v>68</v>
       </c>
       <c r="G62" s="136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H62" s="101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I62" s="106" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="75">
         <v>1</v>
       </c>
       <c r="B63" s="125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C63" s="125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D63" s="104" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F63" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="I63" s="106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="76">
+        <v>1</v>
+      </c>
+      <c r="B64" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="127" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="H63" s="101" t="s">
-        <v>238</v>
-      </c>
-      <c r="I63" s="106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="76">
-        <v>1</v>
-      </c>
-      <c r="B64" s="127" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="127" t="s">
-        <v>240</v>
-      </c>
-      <c r="D64" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="129" t="s">
-        <v>236</v>
-      </c>
       <c r="F64" s="130" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G64" s="99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H64" s="101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I64" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="76">
         <v>1</v>
       </c>
       <c r="B65" s="127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C65" s="127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D65" s="128" t="s">
         <v>68</v>
       </c>
       <c r="E65" s="129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G65" s="99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H65" s="101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I65" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="76">
         <v>1</v>
       </c>
       <c r="B66" s="127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C66" s="127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D66" s="128" t="s">
         <v>68</v>
       </c>
       <c r="E66" s="129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F66" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" s="99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H66" s="101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I66" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="76">
         <v>1</v>
       </c>
       <c r="B67" s="127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C67" s="127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D67" s="128" t="s">
         <v>68</v>
       </c>
       <c r="E67" s="129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F67" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" s="99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H67" s="101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I67" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="76">
         <v>1</v>
       </c>
       <c r="B68" s="127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C68" s="127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D68" s="128" t="s">
         <v>68</v>
       </c>
       <c r="E68" s="129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F68" s="130" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G68" s="99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H68" s="101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I68" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="76">
         <v>1</v>
       </c>
       <c r="B69" s="127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C69" s="127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D69" s="128" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F69" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G69" s="99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H69" s="101" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I69" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="76">
         <v>1</v>
       </c>
       <c r="B70" s="127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C70" s="127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D70" s="128" t="s">
         <v>68</v>
       </c>
       <c r="E70" s="129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F70" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G70" s="99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H70" s="101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I70" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="77">
         <v>17</v>
       </c>
       <c r="B71" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="79" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C71" s="79"/>
       <c r="D71" s="78" t="s">
         <v>68</v>
       </c>
@@ -6160,16 +6167,16 @@
         <v>68</v>
       </c>
       <c r="G71" s="136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H71" s="101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I71" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="108">
         <v>32</v>
       </c>
@@ -6182,12 +6189,10 @@
       <c r="H72" s="108"/>
       <c r="I72" s="108"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="108"/>
       <c r="B73" s="108"/>
-      <c r="C73" s="101" t="s">
-        <v>68</v>
-      </c>
+      <c r="C73" s="101"/>
       <c r="D73" s="101" t="s">
         <v>68</v>
       </c>
@@ -6199,9 +6204,9 @@
       <c r="H73" s="108"/>
       <c r="I73" s="108"/>
     </row>
-    <row r="74" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="7" customFormat="1">
       <c r="A74" s="86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B74" s="86"/>
       <c r="C74" s="87" t="s">
@@ -6210,22 +6215,22 @@
       <c r="D74" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="167" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="162" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74" s="163" t="s">
-        <v>68</v>
-      </c>
-      <c r="H74" s="163" t="s">
-        <v>68</v>
-      </c>
-      <c r="I74" s="163" t="s">
-        <v>68</v>
-      </c>
-      <c r="J74" s="163" t="s">
+      <c r="E74" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" s="162" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="162" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74" s="162" t="s">
+        <v>68</v>
+      </c>
+      <c r="J74" s="162" t="s">
         <v>68</v>
       </c>
       <c r="K74" s="28"/>
@@ -6234,12 +6239,12 @@
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C75" s="63" t="s">
         <v>3</v>
@@ -6247,46 +6252,46 @@
       <c r="D75" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="168" t="s">
+      <c r="E75" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="F75" s="164" t="s">
+      <c r="F75" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="165" t="s">
+      <c r="G75" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="H75" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="I75" s="165" t="s">
+      <c r="H75" s="164" t="s">
+        <v>271</v>
+      </c>
+      <c r="I75" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="J75" s="166" t="s">
+      <c r="J75" s="165" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="30">
       <c r="A76" s="64">
         <v>1</v>
       </c>
       <c r="B76" s="92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="D76" s="111" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E76" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="103" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G76" s="100" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H76" s="101" t="s">
         <v>68</v>
@@ -6298,59 +6303,59 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="111" customHeight="1">
       <c r="A77" s="64">
         <v>1</v>
       </c>
       <c r="B77" s="119" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" s="200" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="D77" s="199" t="s">
+        <v>279</v>
       </c>
       <c r="E77" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="198" t="s">
-        <v>278</v>
+      <c r="F77" s="197" t="s">
+        <v>280</v>
       </c>
       <c r="G77" s="100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H77" s="101" t="s">
         <v>68</v>
       </c>
       <c r="I77" s="113" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J77" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="45">
       <c r="A78" s="64">
         <v>1</v>
       </c>
       <c r="B78" s="119" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D78" s="111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E78" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="121" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G78" s="100" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H78" s="101" t="s">
         <v>68</v>
@@ -6362,39 +6367,39 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="76.5">
       <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="92" t="s">
-        <v>286</v>
+      <c r="B79" s="211" t="s">
+        <v>288</v>
       </c>
       <c r="C79" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" s="199" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="D79" s="198" t="s">
+        <v>290</v>
       </c>
       <c r="E79" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G79" s="100" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H79" s="101" t="s">
         <v>68</v>
       </c>
       <c r="I79" s="113" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J79" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="64">
         <v>1</v>
       </c>
@@ -6411,10 +6416,10 @@
         <v>16</v>
       </c>
       <c r="F80" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G80" s="100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H80" s="101" t="s">
         <v>68</v>
@@ -6422,19 +6427,19 @@
       <c r="I80" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="J80" s="207" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="209" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="80">
         <v>1</v>
       </c>
       <c r="B81" s="92" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D81" s="111" t="s">
         <v>68</v>
@@ -6443,30 +6448,30 @@
         <v>16</v>
       </c>
       <c r="F81" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G81" s="100" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H81" s="101" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I81" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="J81" s="170" t="s">
+      <c r="J81" s="169" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="64">
         <v>1</v>
       </c>
       <c r="B82" s="92" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="D82" s="111" t="s">
         <v>68</v>
@@ -6475,10 +6480,10 @@
         <v>16</v>
       </c>
       <c r="F82" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G82" s="100" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H82" s="101" t="s">
         <v>68</v>
@@ -6490,55 +6495,53 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="64">
         <v>1</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="66" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C83" s="66"/>
       <c r="D83" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E83" s="185" t="s">
+      <c r="E83" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="149"/>
+      <c r="F83" s="148"/>
       <c r="G83" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="H83" s="196"/>
+        <v>303</v>
+      </c>
+      <c r="H83" s="195"/>
       <c r="I83" s="113" t="s">
-        <v>301</v>
-      </c>
-      <c r="J83" s="187" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="J83" s="186" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="60">
       <c r="A84" s="64">
         <v>1</v>
       </c>
       <c r="B84" s="92" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="D84" s="132" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E84" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="121" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G84" s="100" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H84" s="101" t="s">
         <v>68</v>
@@ -6550,27 +6553,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="31.5">
       <c r="A85" s="64">
         <v>1</v>
       </c>
-      <c r="B85" s="137" t="s">
-        <v>306</v>
+      <c r="B85" s="138" t="s">
+        <v>310</v>
       </c>
       <c r="C85" s="105" t="s">
-        <v>307</v>
-      </c>
-      <c r="D85" s="169" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="168" t="s">
         <v>53</v>
       </c>
       <c r="E85" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G85" s="100" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H85" s="101" t="s">
         <v>68</v>
@@ -6578,43 +6581,43 @@
       <c r="I85" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="J85" s="184" t="s">
+      <c r="J85" s="183" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="30">
       <c r="A86" s="133">
         <v>1</v>
       </c>
       <c r="B86" s="134" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C86" s="134" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D86" s="111" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E86" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="98" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G86" s="100" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H86" s="101" t="s">
         <v>68</v>
       </c>
       <c r="I86" s="113" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J86" s="113" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45">
       <c r="A87" s="133">
         <v>1</v>
       </c>
@@ -6631,10 +6634,10 @@
         <v>16</v>
       </c>
       <c r="F87" s="98" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G87" s="100" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H87" s="101" t="s">
         <v>68</v>
@@ -6646,7 +6649,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="60">
       <c r="A88" s="133">
         <v>1</v>
       </c>
@@ -6654,19 +6657,19 @@
         <v>59</v>
       </c>
       <c r="C88" s="134" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D88" s="135" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E88" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F88" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G88" s="136" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H88" s="101" t="s">
         <v>68</v>
@@ -6678,7 +6681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="30">
       <c r="A89" s="133">
         <v>1</v>
       </c>
@@ -6686,19 +6689,19 @@
         <v>61</v>
       </c>
       <c r="C89" s="134" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D89" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E89" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G89" s="136" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H89" s="101" t="s">
         <v>68</v>
@@ -6710,53 +6713,51 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="133">
         <v>1</v>
       </c>
-      <c r="B90" s="137" t="s">
-        <v>322</v>
-      </c>
-      <c r="C90" s="211" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90" s="213" t="s">
-        <v>323</v>
+      <c r="B90" s="138" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" s="212"/>
+      <c r="D90" s="214" t="s">
+        <v>327</v>
       </c>
       <c r="E90" s="112" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G90" s="100" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H90" s="108"/>
       <c r="I90" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="J90" s="184" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="133">
         <v>1</v>
       </c>
-      <c r="B91" s="137" t="s">
-        <v>326</v>
-      </c>
-      <c r="C91" s="212"/>
-      <c r="D91" s="214"/>
-      <c r="E91" s="185" t="s">
+      <c r="B91" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="213"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="149" t="s">
-        <v>278</v>
+      <c r="F91" s="148" t="s">
+        <v>280</v>
       </c>
       <c r="G91" s="100" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H91" s="96" t="s">
         <v>68</v>
@@ -6764,48 +6765,48 @@
       <c r="I91" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="J91" s="184" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="183" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="65">
         <v>1</v>
       </c>
       <c r="B92" s="92" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C92" s="92" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D92" s="111" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E92" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="94" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G92" s="100" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H92" s="101" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I92" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="65">
         <v>1</v>
       </c>
       <c r="B93" s="92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C93" s="92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D93" s="111" t="s">
         <v>68</v>
@@ -6814,85 +6815,85 @@
         <v>16</v>
       </c>
       <c r="F93" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G93" s="100" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H93" s="101" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I93" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="60">
       <c r="A94" s="65">
         <v>1</v>
       </c>
       <c r="B94" s="92" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C94" s="92" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D94" s="111" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E94" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G94" s="100" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H94" s="101" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I94" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15">
       <c r="A95" s="65">
         <v>1</v>
       </c>
       <c r="B95" s="92" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D95" s="111" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E95" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F95" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G95" s="100" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H95" s="101" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I95" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="65">
         <v>1</v>
       </c>
       <c r="B96" s="92" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C96" s="92" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D96" s="111" t="s">
         <v>68</v>
@@ -6901,56 +6902,56 @@
         <v>16</v>
       </c>
       <c r="F96" s="99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G96" s="100" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H96" s="101" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I96" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="107">
-        <v>1</v>
-      </c>
-      <c r="B97" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="C97" s="137" t="s">
-        <v>351</v>
-      </c>
-      <c r="D97" s="140" t="s">
-        <v>352</v>
+    <row r="97" spans="1:9" ht="15">
+      <c r="A97" s="65">
+        <v>1</v>
+      </c>
+      <c r="B97" s="138" t="s">
+        <v>354</v>
+      </c>
+      <c r="C97" s="138" t="s">
+        <v>355</v>
+      </c>
+      <c r="D97" s="141" t="s">
+        <v>356</v>
       </c>
       <c r="E97" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G97" s="100" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H97" s="101" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I97" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="65">
         <v>1</v>
       </c>
       <c r="B98" s="92" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C98" s="92" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D98" s="111" t="s">
         <v>68</v>
@@ -6959,202 +6960,200 @@
         <v>16</v>
       </c>
       <c r="F98" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G98" s="100" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H98" s="108" t="s">
-        <v>358</v>
-      </c>
-      <c r="I98" s="172" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="I98" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="65">
         <v>1</v>
       </c>
       <c r="B99" s="92" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C99" s="92" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D99" s="111" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E99" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F99" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G99" s="101" t="s">
-        <v>362</v>
-      </c>
-      <c r="H99" s="210" t="s">
-        <v>363</v>
-      </c>
-      <c r="I99" s="209" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="H99" s="120" t="s">
+        <v>368</v>
+      </c>
+      <c r="I99" s="137" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="65">
         <v>1</v>
       </c>
       <c r="B100" s="92" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C100" s="92" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D100" s="111" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E100" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G100" s="100" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H100" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="I100" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="I100" s="120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="65">
         <v>1</v>
       </c>
       <c r="B101" s="92" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C101" s="92" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D101" s="111" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E101" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F101" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G101" s="100" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H101" s="101" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I101" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="65">
         <v>2</v>
       </c>
-      <c r="B102" s="137" t="s">
-        <v>374</v>
-      </c>
-      <c r="C102" s="137" t="s">
-        <v>375</v>
-      </c>
-      <c r="D102" s="140" t="s">
-        <v>376</v>
+      <c r="B102" s="138" t="s">
+        <v>378</v>
+      </c>
+      <c r="C102" s="138" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" s="141" t="s">
+        <v>380</v>
       </c>
       <c r="E102" s="106" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G102" s="100" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H102" s="101" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I102" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="65">
         <v>2</v>
       </c>
-      <c r="B103" s="137" t="s">
-        <v>379</v>
-      </c>
-      <c r="C103" s="138" t="s">
-        <v>380</v>
-      </c>
-      <c r="D103" s="138" t="s">
-        <v>381</v>
+      <c r="B103" s="138" t="s">
+        <v>383</v>
+      </c>
+      <c r="C103" s="139" t="s">
+        <v>384</v>
+      </c>
+      <c r="D103" s="139" t="s">
+        <v>385</v>
       </c>
       <c r="E103" s="100" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F103" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G103" s="100" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H103" s="101" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I103" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="65">
         <v>1</v>
       </c>
-      <c r="B104" s="137" t="s">
-        <v>385</v>
-      </c>
-      <c r="C104" s="137" t="s">
+      <c r="B104" s="138" t="s">
+        <v>389</v>
+      </c>
+      <c r="C104" s="138" t="s">
+        <v>390</v>
+      </c>
+      <c r="D104" s="141" t="s">
+        <v>391</v>
+      </c>
+      <c r="E104" s="100" t="s">
         <v>386</v>
       </c>
-      <c r="D104" s="140" t="s">
-        <v>387</v>
-      </c>
-      <c r="E104" s="100" t="s">
-        <v>382</v>
-      </c>
       <c r="F104" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G104" s="100" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H104" s="101" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I104" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="107">
         <v>1</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C105" s="66" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C105" s="66"/>
       <c r="D105" s="69" t="s">
         <v>68</v>
       </c>
@@ -7165,91 +7164,89 @@
         <v>68</v>
       </c>
       <c r="G105" s="100" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H105" s="101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I105" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="68">
         <v>1</v>
       </c>
       <c r="B106" s="92" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D106" s="111" t="s">
-        <v>393</v>
-      </c>
-      <c r="E106" s="139" t="s">
-        <v>160</v>
+        <v>356</v>
+      </c>
+      <c r="E106" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F106" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G106" s="100" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H106" s="101" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I106" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="45.75">
       <c r="A107" s="68">
         <v>1</v>
       </c>
-      <c r="B107" s="137" t="s">
-        <v>396</v>
-      </c>
-      <c r="C107" s="137" t="s">
-        <v>397</v>
-      </c>
-      <c r="D107" s="140" t="s">
-        <v>398</v>
-      </c>
-      <c r="E107" s="139" t="s">
-        <v>160</v>
+      <c r="B107" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="C107" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="141" t="s">
+        <v>401</v>
+      </c>
+      <c r="E107" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F107" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G107" s="100" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H107" s="101" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I107" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="68">
         <v>5</v>
       </c>
-      <c r="B108" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="C108" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="D108" s="111" t="s">
-        <v>403</v>
-      </c>
-      <c r="E108" s="139" t="s">
-        <v>160</v>
+      <c r="B108" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" s="66"/>
+      <c r="D108" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F108" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G108" s="100" t="s">
         <v>404</v>
@@ -7258,48 +7255,46 @@
         <v>405</v>
       </c>
       <c r="I108" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="68">
         <v>2</v>
       </c>
-      <c r="B109" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="C109" s="137" t="s">
+      <c r="B109" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="D109" s="140" t="s">
+      <c r="C109" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="E109" s="139" t="s">
-        <v>160</v>
+      <c r="D109" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F109" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G109" s="100" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H109" s="101" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I109" s="113" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="68">
         <v>2</v>
       </c>
       <c r="B110" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="C110" s="66" t="s">
-        <v>68</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C110" s="66"/>
       <c r="D110" s="69" t="s">
         <v>68</v>
       </c>
@@ -7310,1064 +7305,1077 @@
         <v>68</v>
       </c>
       <c r="G110" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="H110" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="I110" s="113" t="s">
         <v>409</v>
       </c>
-      <c r="H110" s="101" t="s">
-        <v>410</v>
-      </c>
-      <c r="I110" s="113" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="141">
-        <v>1</v>
-      </c>
-      <c r="B111" s="137" t="s">
-        <v>411</v>
-      </c>
-      <c r="C111" s="137" t="s">
+    </row>
+    <row r="111" spans="1:9" ht="30">
+      <c r="A111" s="142">
+        <v>1</v>
+      </c>
+      <c r="B111" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="D111" s="140" t="s">
+      <c r="C111" s="138" t="s">
         <v>413</v>
       </c>
-      <c r="E111" s="139" t="s">
-        <v>160</v>
+      <c r="D111" s="141" t="s">
+        <v>414</v>
+      </c>
+      <c r="E111" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F111" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G111" s="100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H111" s="101" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I111" s="113" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="141">
-        <v>1</v>
-      </c>
-      <c r="B112" s="137" t="s">
         <v>417</v>
       </c>
-      <c r="C112" s="137" t="s">
+    </row>
+    <row r="112" spans="1:9" ht="30">
+      <c r="A112" s="142">
+        <v>1</v>
+      </c>
+      <c r="B112" s="210" t="s">
         <v>418</v>
       </c>
-      <c r="D112" s="137" t="s">
+      <c r="C112" s="210" t="s">
         <v>419</v>
       </c>
-      <c r="E112" s="139" t="s">
-        <v>160</v>
+      <c r="D112" s="210" t="s">
+        <v>420</v>
+      </c>
+      <c r="E112" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G112" s="100" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H112" s="101" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I112" s="113" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="30.75">
       <c r="A113" s="68">
         <v>3</v>
       </c>
       <c r="B113" s="92" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C113" s="92" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D113" s="111" t="s">
-        <v>424</v>
-      </c>
-      <c r="E113" s="139" t="s">
-        <v>160</v>
+        <v>425</v>
+      </c>
+      <c r="E113" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F113" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G113" s="100" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H113" s="101" t="s">
-        <v>426</v>
-      </c>
-      <c r="I113" s="172" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="I113" s="171" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="68">
         <v>1</v>
       </c>
       <c r="B114" s="92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C114" s="92" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D114" s="111" t="s">
-        <v>429</v>
-      </c>
-      <c r="E114" s="139" t="s">
-        <v>160</v>
+        <v>430</v>
+      </c>
+      <c r="E114" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F114" s="136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G114" s="100" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H114" s="101" t="s">
-        <v>431</v>
-      </c>
-      <c r="I114" s="171" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I114" s="170" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="68">
         <v>2</v>
       </c>
       <c r="B115" s="92" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C115" s="92" t="s">
-        <v>434</v>
-      </c>
-      <c r="D115" s="142" t="s">
-        <v>68</v>
-      </c>
-      <c r="E115" s="139" t="s">
-        <v>160</v>
+        <v>435</v>
+      </c>
+      <c r="D115" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="E115" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F115" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G115" s="100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H115" s="101" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I115" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="68">
         <v>3</v>
       </c>
-      <c r="B116" s="195" t="s">
-        <v>437</v>
-      </c>
-      <c r="C116" s="195"/>
+      <c r="B116" s="194" t="s">
+        <v>438</v>
+      </c>
+      <c r="C116" s="194"/>
       <c r="D116" s="66"/>
-      <c r="E116" s="139" t="s">
-        <v>160</v>
+      <c r="E116" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F116" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G116" s="100" t="s">
+        <v>439</v>
+      </c>
+      <c r="H116" s="145" t="s">
+        <v>440</v>
+      </c>
+      <c r="I116" s="113" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="68">
+        <v>1</v>
+      </c>
+      <c r="B117" s="194" t="s">
         <v>438</v>
-      </c>
-      <c r="H116" s="144" t="s">
-        <v>439</v>
-      </c>
-      <c r="I116" s="113" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="68">
-        <v>1</v>
-      </c>
-      <c r="B117" s="195" t="s">
-        <v>437</v>
       </c>
       <c r="C117" s="66"/>
       <c r="D117" s="66"/>
-      <c r="E117" s="139" t="s">
-        <v>160</v>
+      <c r="E117" s="140" t="s">
+        <v>161</v>
       </c>
       <c r="F117" s="103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G117" s="100" t="s">
-        <v>441</v>
-      </c>
-      <c r="H117" s="144" t="s">
         <v>442</v>
       </c>
+      <c r="H117" s="145" t="s">
+        <v>443</v>
+      </c>
       <c r="I117" s="113" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="60">
       <c r="A118" s="68">
         <v>2</v>
       </c>
       <c r="B118" s="92" t="s">
-        <v>444</v>
-      </c>
-      <c r="C118" s="145" t="s">
         <v>445</v>
       </c>
-      <c r="D118" s="146" t="s">
+      <c r="C118" s="146" t="s">
         <v>446</v>
       </c>
-      <c r="E118" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F118" s="103" t="s">
-        <v>289</v>
+      <c r="D118" s="204" t="s">
+        <v>447</v>
+      </c>
+      <c r="E118" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="104" t="s">
+        <v>291</v>
       </c>
       <c r="G118" s="94" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H118" s="101" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I118" s="113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="92" t="s">
-        <v>449</v>
-      </c>
-      <c r="C119" s="145" t="s">
         <v>450</v>
       </c>
-      <c r="D119" s="147" t="s">
+      <c r="C119" s="92" t="s">
         <v>451</v>
       </c>
-      <c r="E119" s="148" t="s">
-        <v>160</v>
-      </c>
-      <c r="F119" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G119" s="149" t="s">
+      <c r="D119" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="E119" s="203"/>
+      <c r="F119" s="191"/>
+      <c r="G119" s="148" t="s">
         <v>452</v>
       </c>
       <c r="H119" s="108" t="s">
         <v>453</v>
       </c>
-      <c r="I119" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I119" s="113"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="68">
         <v>1</v>
       </c>
-      <c r="B120" s="92" t="s">
+      <c r="B120" s="205" t="s">
         <v>454</v>
       </c>
-      <c r="C120" s="98" t="s">
+      <c r="C120" s="206"/>
+      <c r="D120" s="207"/>
+      <c r="E120" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="F120" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G120" s="106" t="s">
         <v>455</v>
       </c>
-      <c r="D120" s="98" t="s">
+      <c r="H120" s="108" t="s">
         <v>456</v>
       </c>
-      <c r="E120" s="129" t="s">
-        <v>160</v>
-      </c>
-      <c r="F120" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G120" s="101" t="s">
+      <c r="I120" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15">
+      <c r="A121" s="68">
+        <v>1</v>
+      </c>
+      <c r="B121" s="92" t="s">
         <v>457</v>
       </c>
-      <c r="H120" s="97" t="s">
+      <c r="C121" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="I120" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="68">
-        <v>1</v>
-      </c>
-      <c r="B121" s="92" t="s">
+      <c r="D121" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="C121" s="104" t="s">
+      <c r="E121" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G121" s="101" t="s">
         <v>460</v>
       </c>
-      <c r="D121" s="104" t="s">
+      <c r="H121" s="97" t="s">
         <v>461</v>
       </c>
-      <c r="E121" s="129" t="s">
-        <v>160</v>
-      </c>
-      <c r="F121" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G121" s="100" t="s">
+      <c r="I121" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30.75">
+      <c r="A122" s="68">
+        <v>1</v>
+      </c>
+      <c r="B122" s="92" t="s">
         <v>462</v>
       </c>
-      <c r="H121" s="108" t="s">
+      <c r="C122" s="104" t="s">
         <v>463</v>
       </c>
-      <c r="I121" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="68">
-        <v>1</v>
-      </c>
-      <c r="B122" s="92" t="s">
+      <c r="D122" s="104" t="s">
+        <v>459</v>
+      </c>
+      <c r="E122" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G122" s="100" t="s">
         <v>464</v>
       </c>
-      <c r="C122" s="98" t="s">
+      <c r="H122" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="D122" s="98" t="s">
+      <c r="I122" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15">
+      <c r="A123" s="68">
+        <v>1</v>
+      </c>
+      <c r="B123" s="92" t="s">
         <v>466</v>
       </c>
-      <c r="E122" s="150" t="s">
-        <v>160</v>
-      </c>
-      <c r="F122" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G122" s="101" t="s">
+      <c r="C123" s="98" t="s">
         <v>467</v>
       </c>
-      <c r="H122" s="97" t="s">
+      <c r="D123" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="I122" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="81">
+      <c r="E123" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="F123" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G123" s="101" t="s">
+        <v>469</v>
+      </c>
+      <c r="H123" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="I123" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="81">
         <v>2</v>
       </c>
-      <c r="B123" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C123" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D123" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E123" s="151" t="s">
-        <v>68</v>
-      </c>
-      <c r="F123" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="G123" s="153" t="s">
-        <v>469</v>
-      </c>
-      <c r="H123" s="154" t="s">
-        <v>470</v>
-      </c>
-      <c r="I123" s="155" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="68">
+      <c r="B124" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="82"/>
+      <c r="D124" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E124" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="G124" s="152" t="s">
+        <v>471</v>
+      </c>
+      <c r="H124" s="153" t="s">
+        <v>472</v>
+      </c>
+      <c r="I124" s="154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30.75">
+      <c r="A125" s="68">
         <v>3</v>
       </c>
-      <c r="B124" s="92" t="s">
-        <v>471</v>
-      </c>
-      <c r="C124" s="92" t="s">
-        <v>472</v>
-      </c>
-      <c r="D124" s="111" t="s">
-        <v>424</v>
-      </c>
-      <c r="E124" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F124" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G124" s="100" t="s">
+      <c r="B125" s="92" t="s">
         <v>473</v>
       </c>
-      <c r="H124" s="101" t="s">
+      <c r="C125" s="92" t="s">
         <v>474</v>
       </c>
-      <c r="I124" s="172" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="68">
-        <v>1</v>
-      </c>
-      <c r="B125" s="92" t="s">
+      <c r="D125" s="111" t="s">
+        <v>425</v>
+      </c>
+      <c r="E125" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F125" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G125" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="C125" s="92" t="s">
+      <c r="H125" s="101" t="s">
         <v>476</v>
       </c>
-      <c r="D125" s="111" t="s">
+      <c r="I125" s="171" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="68">
+        <v>1</v>
+      </c>
+      <c r="B126" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="E125" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F125" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="G125" s="100" t="s">
+      <c r="C126" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="H125" s="101" t="s">
+      <c r="D126" s="111" t="s">
         <v>479</v>
       </c>
-      <c r="I125" s="171" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="68">
+      <c r="E126" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F126" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="G126" s="100" t="s">
+        <v>480</v>
+      </c>
+      <c r="H126" s="101" t="s">
+        <v>481</v>
+      </c>
+      <c r="I126" s="170" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="68">
         <v>2</v>
       </c>
-      <c r="B126" s="92" t="s">
-        <v>480</v>
-      </c>
-      <c r="C126" s="92" t="s">
-        <v>481</v>
-      </c>
-      <c r="D126" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G126" s="100" t="s">
+      <c r="B127" s="92" t="s">
         <v>482</v>
       </c>
-      <c r="H126" s="101" t="s">
+      <c r="C127" s="92" t="s">
         <v>483</v>
       </c>
-      <c r="I126" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="68">
-        <v>1</v>
-      </c>
-      <c r="B127" s="92" t="s">
+      <c r="D127" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E127" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F127" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G127" s="100" t="s">
         <v>484</v>
       </c>
-      <c r="C127" s="92" t="s">
+      <c r="H127" s="101" t="s">
         <v>485</v>
       </c>
-      <c r="D127" s="111" t="s">
+      <c r="I127" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15">
+      <c r="A128" s="68">
+        <v>1</v>
+      </c>
+      <c r="B128" s="92" t="s">
         <v>486</v>
       </c>
-      <c r="E127" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F127" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="G127" s="100" t="s">
+      <c r="C128" s="92" t="s">
         <v>487</v>
       </c>
-      <c r="H127" s="101" t="s">
+      <c r="D128" s="111" t="s">
         <v>488</v>
       </c>
-      <c r="I127" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="68">
-        <v>1</v>
-      </c>
-      <c r="B128" s="92" t="s">
+      <c r="E128" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="G128" s="100" t="s">
         <v>489</v>
       </c>
-      <c r="C128" s="92" t="s">
+      <c r="H128" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D128" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E128" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F128" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G128" s="100" t="s">
+      <c r="I128" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="68">
+        <v>1</v>
+      </c>
+      <c r="B129" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="H128" s="101" t="s">
+      <c r="C129" s="92" t="s">
         <v>492</v>
       </c>
-      <c r="I128" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="68">
-        <v>1</v>
-      </c>
-      <c r="B129" s="92" t="s">
+      <c r="D129" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G129" s="100" t="s">
         <v>493</v>
       </c>
-      <c r="C129" s="92" t="s">
+      <c r="H129" s="101" t="s">
         <v>494</v>
       </c>
-      <c r="D129" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E129" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F129" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G129" s="100" t="s">
+      <c r="I129" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="68">
+        <v>1</v>
+      </c>
+      <c r="B130" s="92" t="s">
         <v>495</v>
       </c>
-      <c r="H129" s="101" t="s">
+      <c r="C130" s="92" t="s">
         <v>496</v>
       </c>
-      <c r="I129" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="174">
-        <v>1</v>
-      </c>
-      <c r="B130" s="92" t="s">
+      <c r="D130" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G130" s="100" t="s">
         <v>497</v>
       </c>
-      <c r="C130" s="92" t="s">
+      <c r="H130" s="101" t="s">
         <v>498</v>
       </c>
-      <c r="D130" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E130" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F130" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G130" s="100" t="s">
+      <c r="I130" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="173">
+        <v>1</v>
+      </c>
+      <c r="B131" s="92" t="s">
         <v>499</v>
       </c>
-      <c r="H130" s="101" t="s">
+      <c r="C131" s="92" t="s">
         <v>500</v>
       </c>
-      <c r="I130" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="J130" s="34" t="s">
+      <c r="D131" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F131" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G131" s="100" t="s">
+        <v>501</v>
+      </c>
+      <c r="H131" s="101" t="s">
+        <v>502</v>
+      </c>
+      <c r="I131" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="J131" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="68">
-        <v>1</v>
-      </c>
-      <c r="B131" s="92" t="s">
-        <v>501</v>
-      </c>
-      <c r="C131" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="D131" s="111" t="s">
+    <row r="132" spans="1:10">
+      <c r="A132" s="68">
+        <v>1</v>
+      </c>
+      <c r="B132" s="92" t="s">
         <v>503</v>
       </c>
-      <c r="E131" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F131" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G131" s="100" t="s">
+      <c r="C132" s="92" t="s">
         <v>504</v>
       </c>
-      <c r="H131" s="101" t="s">
+      <c r="D132" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="I131" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="68">
-        <v>1</v>
-      </c>
-      <c r="B132" s="92" t="s">
+      <c r="E132" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132" s="100" t="s">
         <v>506</v>
       </c>
-      <c r="C132" s="92" t="s">
+      <c r="H132" s="101" t="s">
         <v>507</v>
       </c>
-      <c r="D132" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E132" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F132" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G132" s="100" t="s">
+      <c r="I132" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="68">
+        <v>1</v>
+      </c>
+      <c r="B133" s="92" t="s">
         <v>508</v>
       </c>
-      <c r="H132" s="101" t="s">
+      <c r="C133" s="92" t="s">
         <v>509</v>
       </c>
-      <c r="I132" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="81">
+      <c r="D133" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E133" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G133" s="100" t="s">
+        <v>510</v>
+      </c>
+      <c r="H133" s="101" t="s">
+        <v>511</v>
+      </c>
+      <c r="I133" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="81">
         <v>4</v>
       </c>
-      <c r="B133" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C133" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D133" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E133" s="151" t="s">
-        <v>68</v>
-      </c>
-      <c r="F133" s="156" t="s">
-        <v>68</v>
-      </c>
-      <c r="G133" s="152" t="s">
-        <v>510</v>
-      </c>
-      <c r="H133" s="153" t="s">
-        <v>511</v>
-      </c>
-      <c r="I133" s="155" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="68">
+      <c r="B134" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" s="82"/>
+      <c r="D134" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="F134" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="G134" s="151" t="s">
+        <v>512</v>
+      </c>
+      <c r="H134" s="152" t="s">
+        <v>513</v>
+      </c>
+      <c r="I134" s="154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="30.75">
+      <c r="A135" s="68">
         <v>3</v>
       </c>
-      <c r="B134" s="92" t="s">
-        <v>512</v>
-      </c>
-      <c r="C134" s="92" t="s">
-        <v>513</v>
-      </c>
-      <c r="D134" s="111" t="s">
-        <v>424</v>
-      </c>
-      <c r="E134" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F134" s="100" t="s">
+      <c r="B135" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="G134" s="100" t="s">
+      <c r="C135" s="92" t="s">
         <v>515</v>
       </c>
-      <c r="H134" s="101" t="s">
+      <c r="D135" s="111" t="s">
+        <v>425</v>
+      </c>
+      <c r="E135" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F135" s="100" t="s">
         <v>516</v>
       </c>
-      <c r="I134" s="172" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="68">
-        <v>1</v>
-      </c>
-      <c r="B135" s="92" t="s">
+      <c r="G135" s="100" t="s">
         <v>517</v>
       </c>
-      <c r="C135" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="D135" s="111" t="s">
-        <v>477</v>
-      </c>
-      <c r="E135" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F135" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="G135" s="100" t="s">
+      <c r="H135" s="101" t="s">
         <v>518</v>
       </c>
-      <c r="H135" s="101" t="s">
+      <c r="I135" s="171" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="68">
+        <v>1</v>
+      </c>
+      <c r="B136" s="92" t="s">
         <v>519</v>
       </c>
-      <c r="I135" s="171" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="68">
+      <c r="C136" s="92" t="s">
+        <v>478</v>
+      </c>
+      <c r="D136" s="111" t="s">
+        <v>479</v>
+      </c>
+      <c r="E136" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F136" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="G136" s="100" t="s">
+        <v>520</v>
+      </c>
+      <c r="H136" s="101" t="s">
+        <v>521</v>
+      </c>
+      <c r="I136" s="170" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="68">
         <v>2</v>
       </c>
-      <c r="B136" s="92" t="s">
-        <v>520</v>
-      </c>
-      <c r="C136" s="92" t="s">
-        <v>521</v>
-      </c>
-      <c r="D136" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E136" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F136" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="G136" s="100" t="s">
+      <c r="B137" s="92" t="s">
         <v>522</v>
       </c>
-      <c r="H136" s="101" t="s">
+      <c r="C137" s="92" t="s">
         <v>523</v>
       </c>
-      <c r="I136" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="68">
-        <v>1</v>
-      </c>
-      <c r="B137" s="92" t="s">
+      <c r="D137" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F137" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="G137" s="100" t="s">
         <v>524</v>
       </c>
-      <c r="C137" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="D137" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="E137" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F137" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="G137" s="100" t="s">
+      <c r="H137" s="101" t="s">
         <v>525</v>
       </c>
-      <c r="H137" s="101" t="s">
+      <c r="I137" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15">
+      <c r="A138" s="68">
+        <v>1</v>
+      </c>
+      <c r="B138" s="92" t="s">
         <v>526</v>
       </c>
-      <c r="I137" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="68">
-        <v>1</v>
-      </c>
-      <c r="B138" s="92" t="s">
+      <c r="C138" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="D138" s="111" t="s">
+        <v>488</v>
+      </c>
+      <c r="E138" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F138" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="G138" s="100" t="s">
         <v>527</v>
       </c>
-      <c r="C138" s="92" t="s">
-        <v>490</v>
-      </c>
-      <c r="D138" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E138" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F138" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G138" s="100" t="s">
+      <c r="H138" s="101" t="s">
         <v>528</v>
       </c>
-      <c r="H138" s="101" t="s">
+      <c r="I138" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="68">
+        <v>1</v>
+      </c>
+      <c r="B139" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="I138" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="68">
-        <v>1</v>
-      </c>
-      <c r="B139" s="92" t="s">
+      <c r="C139" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="D139" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F139" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G139" s="100" t="s">
         <v>530</v>
       </c>
-      <c r="C139" s="92" t="s">
-        <v>494</v>
-      </c>
-      <c r="D139" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E139" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F139" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G139" s="100" t="s">
+      <c r="H139" s="101" t="s">
         <v>531</v>
       </c>
-      <c r="H139" s="101" t="s">
+      <c r="I139" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="68">
+        <v>1</v>
+      </c>
+      <c r="B140" s="92" t="s">
         <v>532</v>
       </c>
-      <c r="I139" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="174">
-        <v>1</v>
-      </c>
-      <c r="B140" s="92" t="s">
+      <c r="C140" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="D140" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F140" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G140" s="100" t="s">
         <v>533</v>
       </c>
-      <c r="C140" s="92" t="s">
-        <v>498</v>
-      </c>
-      <c r="D140" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E140" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F140" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G140" s="100" t="s">
+      <c r="H140" s="101" t="s">
         <v>534</v>
       </c>
-      <c r="H140" s="101" t="s">
+      <c r="I140" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="173">
+        <v>1</v>
+      </c>
+      <c r="B141" s="92" t="s">
         <v>535</v>
       </c>
-      <c r="I140" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="J140" s="34" t="s">
+      <c r="C141" s="92" t="s">
+        <v>500</v>
+      </c>
+      <c r="D141" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E141" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F141" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G141" s="100" t="s">
+        <v>536</v>
+      </c>
+      <c r="H141" s="101" t="s">
+        <v>537</v>
+      </c>
+      <c r="I141" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="J141" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="68">
-        <v>1</v>
-      </c>
-      <c r="B141" s="92" t="s">
-        <v>536</v>
-      </c>
-      <c r="C141" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="D141" s="111" t="s">
-        <v>503</v>
-      </c>
-      <c r="E141" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F141" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G141" s="100" t="s">
-        <v>537</v>
-      </c>
-      <c r="H141" s="101" t="s">
+    <row r="142" spans="1:10">
+      <c r="A142" s="68">
+        <v>1</v>
+      </c>
+      <c r="B142" s="92" t="s">
         <v>538</v>
       </c>
-      <c r="I141" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="68">
-        <v>1</v>
-      </c>
-      <c r="B142" s="92" t="s">
+      <c r="C142" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="D142" s="111" t="s">
+        <v>505</v>
+      </c>
+      <c r="E142" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G142" s="100" t="s">
         <v>539</v>
       </c>
-      <c r="C142" s="92" t="s">
-        <v>507</v>
-      </c>
-      <c r="D142" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="E142" s="139" t="s">
-        <v>160</v>
-      </c>
-      <c r="F142" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G142" s="100" t="s">
+      <c r="H142" s="101" t="s">
         <v>540</v>
       </c>
-      <c r="H142" s="101" t="s">
+      <c r="I142" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="68">
+        <v>1</v>
+      </c>
+      <c r="B143" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="I142" s="113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="81">
+      <c r="C143" s="92" t="s">
+        <v>509</v>
+      </c>
+      <c r="D143" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E143" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="F143" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G143" s="100" t="s">
+        <v>542</v>
+      </c>
+      <c r="H143" s="101" t="s">
+        <v>543</v>
+      </c>
+      <c r="I143" s="113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="81">
         <v>4</v>
       </c>
-      <c r="B143" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C143" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D143" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E143" s="151" t="s">
-        <v>68</v>
-      </c>
-      <c r="F143" s="156" t="s">
-        <v>68</v>
-      </c>
-      <c r="G143" s="152" t="s">
-        <v>542</v>
-      </c>
-      <c r="H143" s="153" t="s">
-        <v>543</v>
-      </c>
-      <c r="I143" s="155" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="108">
+      <c r="B144" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="82"/>
+      <c r="D144" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="F144" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="G144" s="151" t="s">
+        <v>544</v>
+      </c>
+      <c r="H144" s="152" t="s">
+        <v>545</v>
+      </c>
+      <c r="I144" s="154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="108">
         <v>96</v>
       </c>
-      <c r="B144" s="143"/>
-      <c r="C144" s="143"/>
-      <c r="D144" s="143"/>
-      <c r="E144" s="108"/>
-      <c r="F144" s="108"/>
-      <c r="G144" s="108"/>
-      <c r="H144" s="108"/>
-      <c r="I144" s="108"/>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="144"/>
+      <c r="C145" s="144"/>
+      <c r="D145" s="144"/>
+      <c r="E145" s="108"/>
+      <c r="F145" s="108"/>
+      <c r="G145" s="108"/>
+      <c r="H145" s="108"/>
+      <c r="I145" s="108"/>
+    </row>
+    <row r="146" spans="1:9">
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
       <c r="E146" s="18"/>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
       <c r="E147" s="18"/>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
       <c r="E148" s="18"/>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
       <c r="E149" s="18"/>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
       <c r="E150" s="18"/>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
       <c r="E151" s="18"/>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
       <c r="E158" s="18"/>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="C159" s="18"/>
       <c r="D159" s="18"/>
       <c r="E159" s="18"/>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
-    </row>
-    <row r="161" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:9">
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+    </row>
+    <row r="161" spans="3:5">
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+    </row>
+    <row r="162" spans="3:5"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C90:C91"/>
@@ -8383,11 +8391,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37600D67-E9A7-416C-8951-24403D24F634}">
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
@@ -8395,12 +8403,12 @@
     <col min="5" max="5" width="78.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="B2" s="8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -8412,220 +8420,220 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="57" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="57"/>
       <c r="B5" s="38" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="57" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="57" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="58" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="57" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="59" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="57" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="59" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" s="204" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="205" t="s">
-        <v>579</v>
-      </c>
-      <c r="D12" s="205" t="s">
+      <c r="C12" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E12" s="206"/>
+      <c r="D12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="59" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="59" t="s">
-        <v>585</v>
-      </c>
-      <c r="B14" s="201">
-        <v>1</v>
-      </c>
-      <c r="C14" s="202" t="s">
         <v>586</v>
       </c>
-      <c r="D14" s="202" t="s">
+      <c r="B14" s="200">
+        <v>1</v>
+      </c>
+      <c r="C14" s="201" t="s">
         <v>587</v>
       </c>
-      <c r="E14" s="203"/>
+      <c r="D14" s="201" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="202"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="59" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B15" s="35">
         <v>1</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="57"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -8633,128 +8641,129 @@
       <c r="E16" s="33"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="57" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B17" s="33">
         <v>4</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E17" s="33"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B18" s="33">
         <v>4</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B19" s="33">
         <v>1</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B20" s="33">
         <v>4</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="A21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B21" s="33">
         <v>16</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>606</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="D21" s="33"/>
       <c r="E21" s="33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F21" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="A22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B22" s="33">
         <v>16</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F22" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="A23" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B23" s="33">
         <v>16</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B25" s="12" t="s">
         <v>1</v>
       </c>
@@ -8766,313 +8775,313 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="16" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B26" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E26" s="3"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B27" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B29" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B30" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E30" s="9"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B31" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E31" s="9"/>
       <c r="G31" s="37"/>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="B32" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E32" s="9"/>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B33" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E33" s="9"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B34" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E34" s="9"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B35" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E35" s="3"/>
       <c r="G35" s="42" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B36" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E36" s="3"/>
       <c r="G36" s="42" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B37" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E37" s="9"/>
       <c r="G37" s="42" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B38" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E38" s="9"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B39" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E39" s="9"/>
       <c r="G39" s="37"/>
     </row>
-    <row r="40" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B40" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E40" s="9"/>
       <c r="G40" s="42" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B41" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E41" s="9"/>
       <c r="G41" s="42" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B42" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E42" s="9"/>
       <c r="G42" s="37"/>
     </row>
-    <row r="43" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B43" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E43" s="9"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="18" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E44" s="3"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="18" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E45" s="3"/>
       <c r="G45" s="37"/>
     </row>
-    <row r="46" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="18" customHeight="1">
       <c r="B46" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" s="189" t="s">
+    <row r="47" spans="2:7" ht="18" customHeight="1"/>
+    <row r="51" spans="2:3">
+      <c r="B51" s="187" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="138" t="s">
+      <c r="C51" s="188" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="189" t="s">
         <v>145</v>
+      </c>
+      <c r="C52" s="139" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9083,6 +9092,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010076723DD47497F340BF00DFEB38A1CDB6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22f1f97cf4033059d3cb210fe262fd3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3529e64-3cea-4bbc-8738-0ef926e036b8" xmlns:ns3="d348c582-9fa4-455b-9842-e3e6804c5275" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7b6d8164bc3ce009b9874e40d0c7c55" ns2:_="" ns3:_="">
     <xsd:import namespace="c3529e64-3cea-4bbc-8738-0ef926e036b8"/>
@@ -9283,15 +9301,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9307,38 +9316,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A613D2-1662-4ED0-A439-A55D13BFA904}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c3529e64-3cea-4bbc-8738-0ef926e036b8"/>
-    <ds:schemaRef ds:uri="d348c582-9fa4-455b-9842-e3e6804c5275"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01424B4-12C3-4B5A-BF4E-9EB41976C0CD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01424B4-12C3-4B5A-BF4E-9EB41976C0CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A939628-387D-4E67-BC2F-BAB4BBFDC619}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48E87420-1DCE-48E5-9E74-E7667D25CA81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d348c582-9fa4-455b-9842-e3e6804c5275"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48E87420-1DCE-48E5-9E74-E7667D25CA81}"/>
 </file>